--- a/results/grid_lstm.xlsx
+++ b/results/grid_lstm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
   <si>
     <t>rmse</t>
   </si>
@@ -30,100 +30,148 @@
     <t>config</t>
   </si>
   <si>
-    <t>6-1-10-50-50-inf</t>
-  </si>
-  <si>
-    <t>6-1-10-50-150-inf</t>
-  </si>
-  <si>
-    <t>6-1-10-100-50-inf</t>
-  </si>
-  <si>
-    <t>6-1-10-100-150-inf</t>
-  </si>
-  <si>
-    <t>6-1-20-50-50-inf</t>
-  </si>
-  <si>
-    <t>6-1-20-50-150-inf</t>
-  </si>
-  <si>
-    <t>6-1-20-100-50-inf</t>
-  </si>
-  <si>
-    <t>6-1-20-100-150-inf</t>
-  </si>
-  <si>
-    <t>6-2-10-50-50-inf</t>
-  </si>
-  <si>
-    <t>6-2-10-50-150-inf</t>
-  </si>
-  <si>
-    <t>6-2-10-100-50-inf</t>
-  </si>
-  <si>
-    <t>6-2-10-100-150-inf</t>
-  </si>
-  <si>
-    <t>6-2-20-50-50-inf</t>
-  </si>
-  <si>
-    <t>6-2-20-50-150-inf</t>
-  </si>
-  <si>
-    <t>6-2-20-100-50-inf</t>
-  </si>
-  <si>
-    <t>6-2-20-100-150-inf</t>
-  </si>
-  <si>
-    <t>12-1-10-50-50-inf</t>
-  </si>
-  <si>
-    <t>12-1-10-50-150-inf</t>
-  </si>
-  <si>
-    <t>12-1-10-100-50-inf</t>
-  </si>
-  <si>
-    <t>12-1-10-100-150-inf</t>
-  </si>
-  <si>
-    <t>12-1-20-50-50-inf</t>
-  </si>
-  <si>
-    <t>12-1-20-50-150-inf</t>
-  </si>
-  <si>
-    <t>12-1-20-100-50-inf</t>
-  </si>
-  <si>
-    <t>12-1-20-100-150-inf</t>
-  </si>
-  <si>
-    <t>12-2-10-50-50-inf</t>
-  </si>
-  <si>
-    <t>12-2-10-50-150-inf</t>
-  </si>
-  <si>
-    <t>12-2-10-100-50-inf</t>
-  </si>
-  <si>
-    <t>12-2-10-100-150-inf</t>
-  </si>
-  <si>
-    <t>12-2-20-50-50-inf</t>
-  </si>
-  <si>
-    <t>12-2-20-50-150-inf</t>
-  </si>
-  <si>
-    <t>12-2-20-100-50-inf</t>
-  </si>
-  <si>
-    <t>12-2-20-100-150-inf</t>
+    <t>5-1-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-20-50-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-20-50-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-20-50-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-20-50-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-20-50-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-20-50-64-inf</t>
   </si>
 </sst>
 </file>
@@ -481,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,13 +554,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>698.1977993282762</v>
+        <v>703.3310182867684</v>
       </c>
       <c r="C2">
-        <v>404.5891205865209</v>
+        <v>408.5803670088995</v>
       </c>
       <c r="D2">
-        <v>0.03166142567958462</v>
+        <v>0.03189997581872629</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -520,13 +568,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>702.3224791935423</v>
+        <v>704.9865287357939</v>
       </c>
       <c r="C3">
-        <v>408.2645175069221</v>
+        <v>410.2352726399095</v>
       </c>
       <c r="D3">
-        <v>0.03192725468807624</v>
+        <v>0.03208081018067618</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -534,13 +582,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>705.208384257917</v>
+        <v>702.2679640348975</v>
       </c>
       <c r="C4">
-        <v>405.6596957577546</v>
+        <v>410.183504770067</v>
       </c>
       <c r="D4">
-        <v>0.03160983370758489</v>
+        <v>0.03207967964408254</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -548,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>707.9466541748117</v>
+        <v>701.4385595504326</v>
       </c>
       <c r="C5">
-        <v>409.449358121793</v>
+        <v>405.544595787088</v>
       </c>
       <c r="D5">
-        <v>0.03192921382852388</v>
+        <v>0.03167010430485376</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -562,13 +610,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>705.2192789752742</v>
+        <v>701.7468398332807</v>
       </c>
       <c r="C6">
-        <v>409.2181468962723</v>
+        <v>406.7799742118837</v>
       </c>
       <c r="D6">
-        <v>0.03195187625280146</v>
+        <v>0.03171328101561263</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -576,13 +624,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>696.7895093654815</v>
+        <v>702.7244130605435</v>
       </c>
       <c r="C7">
-        <v>401.9713993024996</v>
+        <v>410.6207717925342</v>
       </c>
       <c r="D7">
-        <v>0.03138546396188197</v>
+        <v>0.03214031826867156</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -590,13 +638,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>699.9451672229972</v>
+        <v>701.9015729744083</v>
       </c>
       <c r="C8">
-        <v>403.4480560070256</v>
+        <v>407.0976792012949</v>
       </c>
       <c r="D8">
-        <v>0.03154873964044101</v>
+        <v>0.03186878421244989</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -604,13 +652,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>700.0409026302167</v>
+        <v>701.5093191690084</v>
       </c>
       <c r="C9">
-        <v>402.6591233246631</v>
+        <v>406.848285167119</v>
       </c>
       <c r="D9">
-        <v>0.03141765197112245</v>
+        <v>0.03180476563342963</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -618,13 +666,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>705.5465140089084</v>
+        <v>701.9567437405937</v>
       </c>
       <c r="C10">
-        <v>411.1204586211997</v>
+        <v>409.1920535395073</v>
       </c>
       <c r="D10">
-        <v>0.03220441193368118</v>
+        <v>0.03199137651568779</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -632,13 +680,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>705.8078604335298</v>
+        <v>699.1353786677694</v>
       </c>
       <c r="C11">
-        <v>411.1087146657979</v>
+        <v>403.2302988492432</v>
       </c>
       <c r="D11">
-        <v>0.03218216004849404</v>
+        <v>0.03159742150451166</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -646,13 +694,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>700.7192894661745</v>
+        <v>707.1262483926902</v>
       </c>
       <c r="C12">
-        <v>404.716780656191</v>
+        <v>411.6637960356545</v>
       </c>
       <c r="D12">
-        <v>0.03159335655486178</v>
+        <v>0.03222863291543719</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -660,13 +708,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>703.2241032476422</v>
+        <v>701.5220148950822</v>
       </c>
       <c r="C13">
-        <v>407.4625080857045</v>
+        <v>405.5851958875423</v>
       </c>
       <c r="D13">
-        <v>0.03191849937790277</v>
+        <v>0.03162837771818085</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -674,13 +722,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>696.6536897899942</v>
+        <v>697.0273361724323</v>
       </c>
       <c r="C14">
-        <v>400.0733236273575</v>
+        <v>403.650077436284</v>
       </c>
       <c r="D14">
-        <v>0.03128953613554659</v>
+        <v>0.03155867817927558</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -688,13 +736,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>699.2384021677317</v>
+        <v>694.0888038468031</v>
       </c>
       <c r="C15">
-        <v>403.1037312400644</v>
+        <v>398.0416408940474</v>
       </c>
       <c r="D15">
-        <v>0.03151481886497347</v>
+        <v>0.03102296692099477</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -702,13 +750,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>691.0566196145656</v>
+        <v>704.455917515741</v>
       </c>
       <c r="C16">
-        <v>390.3186805272771</v>
+        <v>411.0015718432255</v>
       </c>
       <c r="D16">
-        <v>0.03051471479595702</v>
+        <v>0.03210317678199878</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -716,13 +764,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>700.363666457268</v>
+        <v>696.9805027458965</v>
       </c>
       <c r="C17">
-        <v>403.8953990301021</v>
+        <v>401.4702538005243</v>
       </c>
       <c r="D17">
-        <v>0.03158312074553588</v>
+        <v>0.03138449524130966</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -730,13 +778,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>702.6360598295907</v>
+        <v>702.4264117906458</v>
       </c>
       <c r="C18">
-        <v>409.3846554854823</v>
+        <v>410.9233241315098</v>
       </c>
       <c r="D18">
-        <v>0.03203302176953501</v>
+        <v>0.03216571799637032</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -744,13 +792,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>703.0519807614581</v>
+        <v>702.0711937405028</v>
       </c>
       <c r="C19">
-        <v>407.1431495929031</v>
+        <v>408.6715593469736</v>
       </c>
       <c r="D19">
-        <v>0.03172050283120343</v>
+        <v>0.03185910078734207</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -758,13 +806,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>705.1260256512076</v>
+        <v>700.9473783108792</v>
       </c>
       <c r="C20">
-        <v>412.7491729318536</v>
+        <v>407.3951005494178</v>
       </c>
       <c r="D20">
-        <v>0.03203471225446412</v>
+        <v>0.03178364159596641</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -772,13 +820,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>705.3843110178252</v>
+        <v>700.7912949871513</v>
       </c>
       <c r="C21">
-        <v>412.3408751376626</v>
+        <v>403.0048022080762</v>
       </c>
       <c r="D21">
-        <v>0.03226312172919255</v>
+        <v>0.03148503879667793</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -786,13 +834,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>701.8312135565089</v>
+        <v>697.7981368812084</v>
       </c>
       <c r="C22">
-        <v>406.2555115511852</v>
+        <v>404.8974629679482</v>
       </c>
       <c r="D22">
-        <v>0.03173341427069033</v>
+        <v>0.03161755033958494</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -800,13 +848,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>702.8177382008619</v>
+        <v>698.2241402490611</v>
       </c>
       <c r="C23">
-        <v>407.7855532304072</v>
+        <v>404.6182629459479</v>
       </c>
       <c r="D23">
-        <v>0.0318076380312422</v>
+        <v>0.03154902999072811</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -814,13 +862,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>724.2489437116075</v>
+        <v>697.420369296061</v>
       </c>
       <c r="C24">
-        <v>432.2331452624043</v>
+        <v>402.9662385493398</v>
       </c>
       <c r="D24">
-        <v>0.03336963715152123</v>
+        <v>0.03143077330960819</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -828,13 +876,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>703.0624918862098</v>
+        <v>696.3521244200074</v>
       </c>
       <c r="C25">
-        <v>408.9693228533517</v>
+        <v>398.2770345444331</v>
       </c>
       <c r="D25">
-        <v>0.03191890218178135</v>
+        <v>0.03098360562621225</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -842,13 +890,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>700.0889264084461</v>
+        <v>698.9634633903648</v>
       </c>
       <c r="C26">
-        <v>408.0569967902038</v>
+        <v>406.3878515925897</v>
       </c>
       <c r="D26">
-        <v>0.03184872797191911</v>
+        <v>0.03177955128593506</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -856,13 +904,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>695.8670325410872</v>
+        <v>706.2517933434298</v>
       </c>
       <c r="C27">
-        <v>401.6420924629073</v>
+        <v>413.3242188506233</v>
       </c>
       <c r="D27">
-        <v>0.03134766490930171</v>
+        <v>0.03231494126022191</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -870,13 +918,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>697.5711572449425</v>
+        <v>694.176050296523</v>
       </c>
       <c r="C28">
-        <v>401.4404421539072</v>
+        <v>400.3500050380164</v>
       </c>
       <c r="D28">
-        <v>0.03132054522022289</v>
+        <v>0.03123126291179976</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -884,13 +932,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>693.2429264416764</v>
+        <v>700.6195802590507</v>
       </c>
       <c r="C29">
-        <v>397.774635445531</v>
+        <v>406.7099715910395</v>
       </c>
       <c r="D29">
-        <v>0.03099339070684308</v>
+        <v>0.0317500645424726</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -898,13 +946,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>696.7049835715394</v>
+        <v>698.3575138832401</v>
       </c>
       <c r="C30">
-        <v>401.9801132351351</v>
+        <v>405.6665066116102</v>
       </c>
       <c r="D30">
-        <v>0.03132242469590421</v>
+        <v>0.03169957684890855</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -912,13 +960,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>699.3931020738904</v>
+        <v>706.7536047401305</v>
       </c>
       <c r="C31">
-        <v>404.5412014644089</v>
+        <v>413.5282751940545</v>
       </c>
       <c r="D31">
-        <v>0.03154770002401065</v>
+        <v>0.03231616904115406</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -926,13 +974,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>733.4520288192231</v>
+        <v>704.9657958471317</v>
       </c>
       <c r="C32">
-        <v>442.0820855421295</v>
+        <v>411.4191626690033</v>
       </c>
       <c r="D32">
-        <v>0.03403672571469346</v>
+        <v>0.03216615340023814</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -940,13 +988,237 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>692.2727801886174</v>
+        <v>695.5071186199052</v>
       </c>
       <c r="C33">
-        <v>395.8011291866424</v>
+        <v>401.6313734787047</v>
       </c>
       <c r="D33">
-        <v>0.03087887062389498</v>
+        <v>0.03135688198406025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>695.2829460051622</v>
+      </c>
+      <c r="C34">
+        <v>400.4450369386067</v>
+      </c>
+      <c r="D34">
+        <v>0.0312751699000488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>700.3798173821842</v>
+      </c>
+      <c r="C35">
+        <v>407.8915218693391</v>
+      </c>
+      <c r="D35">
+        <v>0.03185956433309921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>701.0770895857066</v>
+      </c>
+      <c r="C36">
+        <v>407.4291785964554</v>
+      </c>
+      <c r="D36">
+        <v>0.03176009899979426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>701.7932936901874</v>
+      </c>
+      <c r="C37">
+        <v>407.0194091374692</v>
+      </c>
+      <c r="D37">
+        <v>0.03175844159658785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>699.8924694225842</v>
+      </c>
+      <c r="C38">
+        <v>407.9424405409511</v>
+      </c>
+      <c r="D38">
+        <v>0.03191906230170979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>702.1184629801276</v>
+      </c>
+      <c r="C39">
+        <v>409.4746527149601</v>
+      </c>
+      <c r="D39">
+        <v>0.03196564647428346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>699.3418019856172</v>
+      </c>
+      <c r="C40">
+        <v>404.399273383758</v>
+      </c>
+      <c r="D40">
+        <v>0.03155384143512434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>703.0866896682012</v>
+      </c>
+      <c r="C41">
+        <v>408.8080651426043</v>
+      </c>
+      <c r="D41">
+        <v>0.03205467084069719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>702.7842810026506</v>
+      </c>
+      <c r="C42">
+        <v>407.9044346375428</v>
+      </c>
+      <c r="D42">
+        <v>0.03184868539737603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>714.3102589226937</v>
+      </c>
+      <c r="C43">
+        <v>419.6651853808414</v>
+      </c>
+      <c r="D43">
+        <v>0.03283182211091217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>701.499737373683</v>
+      </c>
+      <c r="C44">
+        <v>407.658427377257</v>
+      </c>
+      <c r="D44">
+        <v>0.0317916360791828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>695.6746799029995</v>
+      </c>
+      <c r="C45">
+        <v>400.8345739227973</v>
+      </c>
+      <c r="D45">
+        <v>0.03128083760795913</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>698.9199974498245</v>
+      </c>
+      <c r="C46">
+        <v>405.6701993523147</v>
+      </c>
+      <c r="D46">
+        <v>0.03171853913376529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>700.6552861776903</v>
+      </c>
+      <c r="C47">
+        <v>406.6589035928429</v>
+      </c>
+      <c r="D47">
+        <v>0.03171637904512624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>702.5131581071756</v>
+      </c>
+      <c r="C48">
+        <v>409.3687863544633</v>
+      </c>
+      <c r="D48">
+        <v>0.03197892611651171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>701.2306655564601</v>
+      </c>
+      <c r="C49">
+        <v>407.3584389100733</v>
+      </c>
+      <c r="D49">
+        <v>0.03178309477326398</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +1228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -981,13 +1253,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>595.4229321394719</v>
+        <v>598.4724331578514</v>
       </c>
       <c r="C2">
-        <v>328.9823927771256</v>
+        <v>328.3198985615697</v>
       </c>
       <c r="D2">
-        <v>0.03531457858468827</v>
+        <v>0.03527673255968369</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -995,13 +1267,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>603.7504789192667</v>
+        <v>599.5979495811791</v>
       </c>
       <c r="C3">
-        <v>332.9049498650953</v>
+        <v>329.5495161739792</v>
       </c>
       <c r="D3">
-        <v>0.03567908959859623</v>
+        <v>0.03542249102842357</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1009,13 +1281,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>601.5304060246366</v>
+        <v>599.4930499503633</v>
       </c>
       <c r="C4">
-        <v>333.0493017039368</v>
+        <v>329.047551602217</v>
       </c>
       <c r="D4">
-        <v>0.03570860059503362</v>
+        <v>0.03536682351807954</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1023,13 +1295,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>598.589980688282</v>
+        <v>598.763062176988</v>
       </c>
       <c r="C5">
-        <v>328.1360357884548</v>
+        <v>330.7066923865572</v>
       </c>
       <c r="D5">
-        <v>0.03524237885337102</v>
+        <v>0.03551965253294925</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1037,13 +1309,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>597.0756156648512</v>
+        <v>600.9129484685764</v>
       </c>
       <c r="C6">
-        <v>328.0968025406166</v>
+        <v>331.3601896545335</v>
       </c>
       <c r="D6">
-        <v>0.03530119687337409</v>
+        <v>0.03557811474101542</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1051,13 +1323,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>599.3662784229232</v>
+        <v>600.281427275572</v>
       </c>
       <c r="C7">
-        <v>330.6033289107361</v>
+        <v>329.5845239558099</v>
       </c>
       <c r="D7">
-        <v>0.03557568524208812</v>
+        <v>0.03542540006960328</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1065,13 +1337,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>599.5551153191867</v>
+        <v>597.6939029144236</v>
       </c>
       <c r="C8">
-        <v>333.1283618772641</v>
+        <v>329.1012035843636</v>
       </c>
       <c r="D8">
-        <v>0.03581201080605514</v>
+        <v>0.03537919534917752</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1079,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>598.3564767833881</v>
+        <v>601.5501304867358</v>
       </c>
       <c r="C9">
-        <v>330.2677715154682</v>
+        <v>330.1414849952361</v>
       </c>
       <c r="D9">
-        <v>0.03551168567535855</v>
+        <v>0.03548481735977992</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1093,13 +1365,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>595.91302847534</v>
+        <v>598.3463942225563</v>
       </c>
       <c r="C10">
-        <v>329.0507353948792</v>
+        <v>329.7448882257768</v>
       </c>
       <c r="D10">
-        <v>0.03540108466894026</v>
+        <v>0.03538564715452233</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1107,13 +1379,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>598.6895213347086</v>
+        <v>601.7206787122357</v>
       </c>
       <c r="C11">
-        <v>329.5687489208638</v>
+        <v>331.4871278119505</v>
       </c>
       <c r="D11">
-        <v>0.03544581710267745</v>
+        <v>0.03559542728377083</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1121,13 +1393,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>603.5403467401975</v>
+        <v>601.2251185415981</v>
       </c>
       <c r="C12">
-        <v>332.6473499391266</v>
+        <v>329.5440880962917</v>
       </c>
       <c r="D12">
-        <v>0.03571358325610673</v>
+        <v>0.0354124561828859</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1135,13 +1407,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>601.0180697343587</v>
+        <v>599.5021845853678</v>
       </c>
       <c r="C13">
-        <v>330.7626809321778</v>
+        <v>328.8521593876021</v>
       </c>
       <c r="D13">
-        <v>0.03551058721438495</v>
+        <v>0.03533826660473108</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1149,13 +1421,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>596.8598899674666</v>
+        <v>601.581199629996</v>
       </c>
       <c r="C14">
-        <v>328.0975157907383</v>
+        <v>330.2960448964357</v>
       </c>
       <c r="D14">
-        <v>0.03524804145034391</v>
+        <v>0.03545927989234085</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1163,13 +1435,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>599.3707275356815</v>
+        <v>599.4807632235222</v>
       </c>
       <c r="C15">
-        <v>330.2283178507489</v>
+        <v>329.9423632689941</v>
       </c>
       <c r="D15">
-        <v>0.03548803344760407</v>
+        <v>0.03545777359813432</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1177,13 +1449,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>598.4269073340829</v>
+        <v>598.3944965264785</v>
       </c>
       <c r="C16">
-        <v>329.6511272203605</v>
+        <v>329.962768442761</v>
       </c>
       <c r="D16">
-        <v>0.03545418429676075</v>
+        <v>0.03546067077037938</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1191,13 +1463,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>595.619861781789</v>
+        <v>599.9527536886096</v>
       </c>
       <c r="C17">
-        <v>328.490986516613</v>
+        <v>330.0852711654322</v>
       </c>
       <c r="D17">
-        <v>0.03527135899155676</v>
+        <v>0.03542539620448722</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1205,13 +1477,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>599.1601703142755</v>
+        <v>599.4152712217705</v>
       </c>
       <c r="C18">
-        <v>329.76729501054</v>
+        <v>329.7463501494979</v>
       </c>
       <c r="D18">
-        <v>0.03546110859404181</v>
+        <v>0.03544848205515702</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1219,13 +1491,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>599.7104430505385</v>
+        <v>598.5654417207156</v>
       </c>
       <c r="C19">
-        <v>328.9913308160542</v>
+        <v>329.3943354266002</v>
       </c>
       <c r="D19">
-        <v>0.03533283068542292</v>
+        <v>0.0354104781869421</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1233,13 +1505,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>594.0016457062645</v>
+        <v>598.3032934821255</v>
       </c>
       <c r="C20">
-        <v>331.0790930975748</v>
+        <v>330.1734945723001</v>
       </c>
       <c r="D20">
-        <v>0.03558093304760851</v>
+        <v>0.03551361991158311</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1247,13 +1519,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>596.6717289283482</v>
+        <v>600.3360237959478</v>
       </c>
       <c r="C21">
-        <v>330.1291104815717</v>
+        <v>330.6276820315522</v>
       </c>
       <c r="D21">
-        <v>0.03552911550700851</v>
+        <v>0.03553832087756512</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1261,13 +1533,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>599.779794836916</v>
+        <v>599.0956992807862</v>
       </c>
       <c r="C22">
-        <v>329.8705823425204</v>
+        <v>330.0630977050236</v>
       </c>
       <c r="D22">
-        <v>0.03553311081849544</v>
+        <v>0.03549520311927945</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1275,13 +1547,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>598.4416386288757</v>
+        <v>599.7094300159156</v>
       </c>
       <c r="C23">
-        <v>330.9038668737724</v>
+        <v>329.4402507186166</v>
       </c>
       <c r="D23">
-        <v>0.03558545670670804</v>
+        <v>0.03538610786984798</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1289,13 +1561,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>593.4433102535045</v>
+        <v>599.7475517499319</v>
       </c>
       <c r="C24">
-        <v>349.7473499916263</v>
+        <v>329.8800999659829</v>
       </c>
       <c r="D24">
-        <v>0.03769854827082831</v>
+        <v>0.03545231815001391</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1303,13 +1575,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>599.4436197378953</v>
+        <v>597.6203288052201</v>
       </c>
       <c r="C25">
-        <v>331.1807240376971</v>
+        <v>330.0722809374374</v>
       </c>
       <c r="D25">
-        <v>0.03555566991747618</v>
+        <v>0.03548606717638126</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1317,13 +1589,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>593.583648067913</v>
+        <v>596.283493998986</v>
       </c>
       <c r="C26">
-        <v>330.2904591125523</v>
+        <v>329.2453339497819</v>
       </c>
       <c r="D26">
-        <v>0.03553866242347454</v>
+        <v>0.03539489117874716</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1331,13 +1603,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>598.8797968776789</v>
+        <v>607.1281019305143</v>
       </c>
       <c r="C27">
-        <v>329.3572478381166</v>
+        <v>335.6432625698096</v>
       </c>
       <c r="D27">
-        <v>0.03541207740688162</v>
+        <v>0.03593918420600582</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1345,13 +1617,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>595.0226593447303</v>
+        <v>597.1368445802963</v>
       </c>
       <c r="C28">
-        <v>330.1347117944526</v>
+        <v>330.6883052882502</v>
       </c>
       <c r="D28">
-        <v>0.03549163262088109</v>
+        <v>0.03550509902404517</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1359,13 +1631,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>600.692850310225</v>
+        <v>593.8316516335976</v>
       </c>
       <c r="C29">
-        <v>330.8255247227405</v>
+        <v>328.1161866407772</v>
       </c>
       <c r="D29">
-        <v>0.03553757866279858</v>
+        <v>0.0352471502542237</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1373,13 +1645,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>599.6587181316602</v>
+        <v>598.3641993316728</v>
       </c>
       <c r="C30">
-        <v>331.74088848068</v>
+        <v>328.3922374282912</v>
       </c>
       <c r="D30">
-        <v>0.03562789416914253</v>
+        <v>0.03532509505310292</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1387,13 +1659,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>597.0226721087346</v>
+        <v>600.8787712556083</v>
       </c>
       <c r="C31">
-        <v>328.2547637588823</v>
+        <v>329.8029132585932</v>
       </c>
       <c r="D31">
-        <v>0.03525637786278981</v>
+        <v>0.03546716483569279</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1401,13 +1673,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>589.5519054322344</v>
+        <v>596.0911622442355</v>
       </c>
       <c r="C32">
-        <v>336.7561824512982</v>
+        <v>329.6461471899391</v>
       </c>
       <c r="D32">
-        <v>0.03620551279320717</v>
+        <v>0.03545783262160925</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1415,13 +1687,237 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>600.7009378449709</v>
+        <v>599.7435897784031</v>
       </c>
       <c r="C33">
-        <v>334.6514267746874</v>
+        <v>331.7697685931242</v>
       </c>
       <c r="D33">
-        <v>0.03595399235443956</v>
+        <v>0.03561264845602494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>598.5955377226929</v>
+      </c>
+      <c r="C34">
+        <v>328.6345695210586</v>
+      </c>
+      <c r="D34">
+        <v>0.03532999025045951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>600.6690437225634</v>
+      </c>
+      <c r="C35">
+        <v>330.7535984642589</v>
+      </c>
+      <c r="D35">
+        <v>0.03551425486184485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>598.6358164184355</v>
+      </c>
+      <c r="C36">
+        <v>329.252614927457</v>
+      </c>
+      <c r="D36">
+        <v>0.03538562472982804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>599.5526707690806</v>
+      </c>
+      <c r="C37">
+        <v>330.8369836501046</v>
+      </c>
+      <c r="D37">
+        <v>0.03553688131244816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>599.5270806763243</v>
+      </c>
+      <c r="C38">
+        <v>329.3991962531908</v>
+      </c>
+      <c r="D38">
+        <v>0.03544492654682341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>600.2060205820579</v>
+      </c>
+      <c r="C39">
+        <v>329.8575892701258</v>
+      </c>
+      <c r="D39">
+        <v>0.03546478005848093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>597.5980233524404</v>
+      </c>
+      <c r="C40">
+        <v>329.4301406061623</v>
+      </c>
+      <c r="D40">
+        <v>0.03538728853630452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>598.0470970288662</v>
+      </c>
+      <c r="C41">
+        <v>331.5698575382823</v>
+      </c>
+      <c r="D41">
+        <v>0.03567098215079331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>600.9416261206451</v>
+      </c>
+      <c r="C42">
+        <v>332.466621970351</v>
+      </c>
+      <c r="D42">
+        <v>0.03569128116772921</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>603.343623449921</v>
+      </c>
+      <c r="C43">
+        <v>333.5350302461579</v>
+      </c>
+      <c r="D43">
+        <v>0.0357507648779498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>596.4087521494711</v>
+      </c>
+      <c r="C44">
+        <v>329.5707100115445</v>
+      </c>
+      <c r="D44">
+        <v>0.03538524039855236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>598.4243070130528</v>
+      </c>
+      <c r="C45">
+        <v>328.911468695562</v>
+      </c>
+      <c r="D45">
+        <v>0.03536528897372366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>604.2866201274142</v>
+      </c>
+      <c r="C46">
+        <v>331.4287360992674</v>
+      </c>
+      <c r="D46">
+        <v>0.03559354899772763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>598.5086785170362</v>
+      </c>
+      <c r="C47">
+        <v>328.9965812905441</v>
+      </c>
+      <c r="D47">
+        <v>0.03538215002791049</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>597.6165626392733</v>
+      </c>
+      <c r="C48">
+        <v>329.8214172985168</v>
+      </c>
+      <c r="D48">
+        <v>0.03543136160635026</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>593.0665068458893</v>
+      </c>
+      <c r="C49">
+        <v>330.1567366919991</v>
+      </c>
+      <c r="D49">
+        <v>0.0354727503946056</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1927,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1456,13 +1952,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>726.2387199488892</v>
+        <v>726.1850272911284</v>
       </c>
       <c r="C2">
-        <v>522.451729161727</v>
+        <v>524.1493722156202</v>
       </c>
       <c r="D2">
-        <v>0.05229415127373369</v>
+        <v>0.05245786515740383</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1470,13 +1966,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>722.0918346462413</v>
+        <v>725.0554217260858</v>
       </c>
       <c r="C3">
-        <v>521.5243174825009</v>
+        <v>522.7212281280302</v>
       </c>
       <c r="D3">
-        <v>0.05220466147065167</v>
+        <v>0.052329564055949</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1484,13 +1980,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>725.0256458125199</v>
+        <v>723.0230738097514</v>
       </c>
       <c r="C4">
-        <v>523.9469815077908</v>
+        <v>522.6210223182968</v>
       </c>
       <c r="D4">
-        <v>0.05227671993835014</v>
+        <v>0.05224315346877154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1498,13 +1994,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>723.6680587720615</v>
+        <v>726.0562022163493</v>
       </c>
       <c r="C5">
-        <v>523.3233024476974</v>
+        <v>522.6443283940112</v>
       </c>
       <c r="D5">
-        <v>0.05250929432942377</v>
+        <v>0.05237149490419792</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1512,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>722.3269717229988</v>
+        <v>725.4627082775992</v>
       </c>
       <c r="C6">
-        <v>521.2158420059436</v>
+        <v>524.0177991254392</v>
       </c>
       <c r="D6">
-        <v>0.05216091032411532</v>
+        <v>0.05244816021472422</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1526,13 +2022,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>725.7212230454433</v>
+        <v>725.4958159174017</v>
       </c>
       <c r="C7">
-        <v>523.8565963792101</v>
+        <v>522.4963142337833</v>
       </c>
       <c r="D7">
-        <v>0.05252775417568574</v>
+        <v>0.0523067972300242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1540,13 +2036,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>725.1941306708707</v>
+        <v>724.5129938804159</v>
       </c>
       <c r="C8">
-        <v>522.5214753202588</v>
+        <v>522.5911061588786</v>
       </c>
       <c r="D8">
-        <v>0.05231767423303817</v>
+        <v>0.05222860030200836</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1554,13 +2050,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>724.5621551614728</v>
+        <v>722.9166185347401</v>
       </c>
       <c r="C9">
-        <v>522.9860471968231</v>
+        <v>521.2157827692378</v>
       </c>
       <c r="D9">
-        <v>0.05235043631424011</v>
+        <v>0.0521738782951953</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1568,13 +2064,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>724.7339869937557</v>
+        <v>727.1205809787429</v>
       </c>
       <c r="C10">
-        <v>521.7352296114831</v>
+        <v>526.5850101864645</v>
       </c>
       <c r="D10">
-        <v>0.05234749160271292</v>
+        <v>0.05272110265246127</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1582,13 +2078,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>724.6063897738585</v>
+        <v>724.592033273484</v>
       </c>
       <c r="C11">
-        <v>522.7294775316927</v>
+        <v>522.6673734562524</v>
       </c>
       <c r="D11">
-        <v>0.05225852984496812</v>
+        <v>0.05232751765745072</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1596,13 +2092,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>723.7649776701867</v>
+        <v>730.3168280643742</v>
       </c>
       <c r="C12">
-        <v>523.463847224691</v>
+        <v>527.1949006505769</v>
       </c>
       <c r="D12">
-        <v>0.05246096380367073</v>
+        <v>0.05295011586439187</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1610,13 +2106,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>721.6115936684789</v>
+        <v>722.2157946850941</v>
       </c>
       <c r="C13">
-        <v>521.4764454027396</v>
+        <v>522.6732036016911</v>
       </c>
       <c r="D13">
-        <v>0.05221612388352555</v>
+        <v>0.05244159749017738</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1624,13 +2120,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>726.5155701967479</v>
+        <v>725.6082881419114</v>
       </c>
       <c r="C14">
-        <v>522.6529493354386</v>
+        <v>522.477969130613</v>
       </c>
       <c r="D14">
-        <v>0.05221356702625146</v>
+        <v>0.05219856840424988</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1638,13 +2134,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>725.7201927140859</v>
+        <v>724.1360382506231</v>
       </c>
       <c r="C15">
-        <v>523.5264784516575</v>
+        <v>522.5138635506888</v>
       </c>
       <c r="D15">
-        <v>0.05244731282954555</v>
+        <v>0.052452689983081</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1652,13 +2148,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>723.5159722606522</v>
+        <v>723.9114649976245</v>
       </c>
       <c r="C16">
-        <v>522.1437134164678</v>
+        <v>523.3793199060402</v>
       </c>
       <c r="D16">
-        <v>0.0519983292591308</v>
+        <v>0.05236123787941064</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1666,13 +2162,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>725.7413858248476</v>
+        <v>723.4404789780214</v>
       </c>
       <c r="C17">
-        <v>524.349097443018</v>
+        <v>522.2105802603335</v>
       </c>
       <c r="D17">
-        <v>0.05256296753941674</v>
+        <v>0.05228545290980399</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1680,13 +2176,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>724.8742815715541</v>
+        <v>725.1367955791087</v>
       </c>
       <c r="C18">
-        <v>522.6334285425409</v>
+        <v>522.3197588125764</v>
       </c>
       <c r="D18">
-        <v>0.05223613720192586</v>
+        <v>0.05228379505732999</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1694,13 +2190,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>726.5157327730624</v>
+        <v>724.3605379202945</v>
       </c>
       <c r="C19">
-        <v>523.2582665404366</v>
+        <v>522.0198583247733</v>
       </c>
       <c r="D19">
-        <v>0.05218785147902191</v>
+        <v>0.052216063694077</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1708,13 +2204,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>727.8819817562224</v>
+        <v>724.7153506467395</v>
       </c>
       <c r="C20">
-        <v>524.4829425545325</v>
+        <v>523.1052972455948</v>
       </c>
       <c r="D20">
-        <v>0.05240646517870926</v>
+        <v>0.05226271962311708</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1722,13 +2218,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>723.7615075500786</v>
+        <v>725.1049530777937</v>
       </c>
       <c r="C21">
-        <v>522.1102684702403</v>
+        <v>522.2377580798592</v>
       </c>
       <c r="D21">
-        <v>0.05224696385048071</v>
+        <v>0.05233373722050245</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1736,13 +2232,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>728.7857434241242</v>
+        <v>725.390581499307</v>
       </c>
       <c r="C22">
-        <v>522.169993997499</v>
+        <v>521.8874735531334</v>
       </c>
       <c r="D22">
-        <v>0.05212527469953319</v>
+        <v>0.05220121438243253</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1750,13 +2246,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>724.6740950208275</v>
+        <v>724.217779277779</v>
       </c>
       <c r="C23">
-        <v>522.6927647971531</v>
+        <v>522.701239965651</v>
       </c>
       <c r="D23">
-        <v>0.05226116346530201</v>
+        <v>0.05226048416308574</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1764,13 +2260,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>814.8270679236198</v>
+        <v>725.0978028353662</v>
       </c>
       <c r="C24">
-        <v>606.9174992819026</v>
+        <v>522.2481263216849</v>
       </c>
       <c r="D24">
-        <v>0.0607509011311443</v>
+        <v>0.05222472101263893</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1778,13 +2274,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>722.4478460026241</v>
+        <v>724.9412921231765</v>
       </c>
       <c r="C25">
-        <v>521.1088998737339</v>
+        <v>521.908282041921</v>
       </c>
       <c r="D25">
-        <v>0.05213543277459932</v>
+        <v>0.05211805307537731</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1792,13 +2288,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>721.919081023579</v>
+        <v>727.2168938208389</v>
       </c>
       <c r="C26">
-        <v>519.5622405434377</v>
+        <v>523.0172189593121</v>
       </c>
       <c r="D26">
-        <v>0.05188409072346526</v>
+        <v>0.05236158456311758</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1806,13 +2302,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>722.8905688837694</v>
+        <v>728.0333533753488</v>
       </c>
       <c r="C27">
-        <v>520.6062607054979</v>
+        <v>522.2854100821364</v>
       </c>
       <c r="D27">
-        <v>0.05212043093787711</v>
+        <v>0.05229119013046019</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1820,13 +2316,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>804.9404831203071</v>
+        <v>723.2293445636624</v>
       </c>
       <c r="C28">
-        <v>596.2284918163571</v>
+        <v>522.6065703073301</v>
       </c>
       <c r="D28">
-        <v>0.06049212920294725</v>
+        <v>0.05228989123832745</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1834,13 +2330,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>726.7123931592743</v>
+        <v>722.339094696353</v>
       </c>
       <c r="C29">
-        <v>525.2714026933353</v>
+        <v>519.9469579360725</v>
       </c>
       <c r="D29">
-        <v>0.05238548229334156</v>
+        <v>0.05203419414423322</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1848,13 +2344,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>725.6960184218441</v>
+        <v>725.2682431328252</v>
       </c>
       <c r="C30">
-        <v>522.0731045941154</v>
+        <v>521.363806964163</v>
       </c>
       <c r="D30">
-        <v>0.05217877953131005</v>
+        <v>0.05204425218061529</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1862,13 +2358,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>725.5561406769988</v>
+        <v>724.9896773458256</v>
       </c>
       <c r="C31">
-        <v>522.8284092254494</v>
+        <v>524.4980630740318</v>
       </c>
       <c r="D31">
-        <v>0.05220679244210314</v>
+        <v>0.0527909863407229</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1876,13 +2372,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>818.9495917130357</v>
+        <v>722.7648673655564</v>
       </c>
       <c r="C32">
-        <v>612.9689732892314</v>
+        <v>522.0312463063899</v>
       </c>
       <c r="D32">
-        <v>0.06108635226725042</v>
+        <v>0.05207756164811516</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1890,13 +2386,237 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>723.3891507547409</v>
+        <v>724.5027225806713</v>
       </c>
       <c r="C33">
-        <v>522.0470231970949</v>
+        <v>521.3986542385701</v>
       </c>
       <c r="D33">
-        <v>0.05226556294514422</v>
+        <v>0.0520251255792416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>722.9670564142231</v>
+      </c>
+      <c r="C34">
+        <v>519.8322152403945</v>
+      </c>
+      <c r="D34">
+        <v>0.05193008348905898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>724.0502699265284</v>
+      </c>
+      <c r="C35">
+        <v>523.3260941389375</v>
+      </c>
+      <c r="D35">
+        <v>0.05234867300498276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>723.2355304374325</v>
+      </c>
+      <c r="C36">
+        <v>522.7150107975856</v>
+      </c>
+      <c r="D36">
+        <v>0.05243192120341639</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>728.0485863877738</v>
+      </c>
+      <c r="C37">
+        <v>525.6747672072478</v>
+      </c>
+      <c r="D37">
+        <v>0.05261178409636889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>725.5102578612849</v>
+      </c>
+      <c r="C38">
+        <v>523.435039029911</v>
+      </c>
+      <c r="D38">
+        <v>0.05237529076900615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>725.9215596542904</v>
+      </c>
+      <c r="C39">
+        <v>523.2385209068359</v>
+      </c>
+      <c r="D39">
+        <v>0.05233957337839946</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>723.3481058066196</v>
+      </c>
+      <c r="C40">
+        <v>521.6179842779285</v>
+      </c>
+      <c r="D40">
+        <v>0.05219380520410306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>735.036053000631</v>
+      </c>
+      <c r="C41">
+        <v>527.8463949697224</v>
+      </c>
+      <c r="D41">
+        <v>0.05233497849690384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>723.4515301345285</v>
+      </c>
+      <c r="C42">
+        <v>521.6019402304009</v>
+      </c>
+      <c r="D42">
+        <v>0.05214034844203713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>724.2213781405237</v>
+      </c>
+      <c r="C43">
+        <v>522.99638759953</v>
+      </c>
+      <c r="D43">
+        <v>0.05210702763377345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>721.7176587317874</v>
+      </c>
+      <c r="C44">
+        <v>520.9508043994701</v>
+      </c>
+      <c r="D44">
+        <v>0.05198940143976209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>726.01294588034</v>
+      </c>
+      <c r="C45">
+        <v>521.811415930113</v>
+      </c>
+      <c r="D45">
+        <v>0.05219333796917052</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>724.0118707549673</v>
+      </c>
+      <c r="C46">
+        <v>523.046272940914</v>
+      </c>
+      <c r="D46">
+        <v>0.05239413465348281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>723.2827848046572</v>
+      </c>
+      <c r="C47">
+        <v>522.3210366504098</v>
+      </c>
+      <c r="D47">
+        <v>0.05230992357377599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>722.2254641692011</v>
+      </c>
+      <c r="C48">
+        <v>519.4230970817225</v>
+      </c>
+      <c r="D48">
+        <v>0.05173182743447601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>724.8301328945704</v>
+      </c>
+      <c r="C49">
+        <v>521.7782063724964</v>
+      </c>
+      <c r="D49">
+        <v>0.05209052792366698</v>
       </c>
     </row>
   </sheetData>
